--- a/testCase/sqsrmyyadmin/doctorManage.xlsx
+++ b/testCase/sqsrmyyadmin/doctorManage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="insertDoctor" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="moveTopDoctor" sheetId="6" r:id="rId6"/>
     <sheet name="moveUpDoctor" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>caseName</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>上移医生成功</t>
+  </si>
+  <si>
+    <t>databaseName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehospital2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1193,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1205,11 +1213,12 @@
     <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="83.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="83.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,10 +1232,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1240,6 +1252,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1494,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
